--- a/email_list.xlsx
+++ b/email_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cs\Desktop\문항 개발 요청(1112)_hj\공공1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeji\Desktop\최종문항(1129)\5번(청소공지)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강한나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한예원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김영철</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이민수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도민준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전지선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,18 +79,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아름아파트 이메일 명단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>min@naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hew@hanmail.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zero@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +116,26 @@
   </si>
   <si>
     <t>na1@naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one@hanmail.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름아파트 주민 이메일 명단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박상환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,17 +282,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,42 +610,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="26.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:4" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -653,13 +653,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>101</v>
       </c>
@@ -670,10 +670,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>102</v>
       </c>
@@ -681,27 +681,27 @@
         <v>1002</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>104</v>
       </c>
       <c r="B9" s="2">
-        <v>502</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>103</v>
       </c>
@@ -709,13 +709,13 @@
         <v>906</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>107</v>
       </c>
@@ -723,27 +723,27 @@
         <v>706</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2">
         <v>402</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>105</v>
       </c>
@@ -751,13 +751,13 @@
         <v>905</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>104</v>
       </c>
@@ -765,13 +765,13 @@
         <v>1105</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>106</v>
       </c>
@@ -779,13 +779,13 @@
         <v>202</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>105</v>
       </c>
@@ -793,10 +793,10 @@
         <v>1103</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/email_list.xlsx
+++ b/email_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeji\Desktop\최종문항(1129)\5번(청소공지)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7932"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,17 +611,17 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="26.69921875" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:4" ht="25.8" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -629,7 +629,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -639,13 +639,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,7 +659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>101</v>
       </c>
@@ -673,7 +673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>102</v>
       </c>
@@ -683,11 +683,11 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>104</v>
       </c>
@@ -701,7 +701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>103</v>
       </c>
@@ -715,7 +715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>107</v>
       </c>
@@ -729,7 +729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>101</v>
       </c>
@@ -743,7 +743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>105</v>
       </c>
@@ -757,7 +757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>104</v>
       </c>
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>106</v>
       </c>
@@ -785,7 +785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>105</v>
       </c>
